--- a/Material Complementar/tecnicas-amostragem-calculadora-amostral.xlsx
+++ b/Material Complementar/tecnicas-amostragem-calculadora-amostral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Le Bomb\kgalois\FMU\2022.2\2022.2-fmu-tecnicas-amostragem\Material Complementar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315F747-0A8A-45DC-8ECA-C0113E556541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26469904-4205-48EE-B297-14BACAFC2ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{19465B11-317E-4BF6-AB03-1BFD31028CFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19465B11-317E-4BF6-AB03-1BFD31028CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="AASc" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -272,56 +286,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,115 +684,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C3956F-9FA1-4E8A-8574-E519D5814492}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="24" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="24"/>
+    <col min="7" max="7" width="9.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="26">
+        <v>25</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="30">
+        <v>485</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12" t="str">
+      <c r="B5" s="30">
+        <v>100</v>
+      </c>
+      <c r="C5" s="33">
         <f>IF(B3&gt;0,(B4-B6*SQRT(B5/B3)),"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="12" t="str">
+        <v>481.08</v>
+      </c>
+      <c r="D5" s="33">
         <f>IF(B3&gt;0,(B4+B6*SQRT(B5/B3)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+        <v>488.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B6" s="24">
+        <v>1.96</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6" t="str">
+      <c r="B11" s="34"/>
+      <c r="C11" s="38" t="str">
         <f>IF(B9&gt;0,B9/(B10^2/B11^2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="15" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="29">
         <v>0.9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="30">
         <v>1.65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="29">
         <v>0.95</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="30">
         <v>1.96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="34">
         <v>0.99</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="38">
         <v>2.57</v>
       </c>
     </row>
@@ -765,50 +823,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC594BD2-F9B9-4478-B662-F58B1876A80D}">
   <dimension ref="A2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="12" t="str">
         <f>IF(AND(B3&gt;0,B4&gt;0,B5&gt;0,B6&gt;0,B7&gt;0),(B5-B7*SQRT((1-B4/B3)*(B6/B3))),"")</f>
         <v/>
@@ -818,77 +879,76 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="19" t="str">
         <f>IF(AND(B10&gt;0,B11&gt;0,B12&gt;0,B13&gt;0),(1/(((B12^2/B13^2)/B11)+(1/B10))),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
         <v>0.9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <v>1.65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
         <v>0.95</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>1.96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13">
         <v>0.99</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="14">
         <v>2.57</v>
       </c>
     </row>
